--- a/input/nmr/dsn.2/data.input.xlsx
+++ b/input/nmr/dsn.2/data.input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\data science\chemistry\kev\input\nmr\dsn.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D5BFF6-04F7-424E-87DE-D97A5270AC88}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F13BD23-A80B-4715-A060-7FF575B46005}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stoich_coefficients" sheetId="2" r:id="rId1"/>
@@ -426,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,7 +442,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1025,7 +1025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
